--- a/biology/Zoologie/Ammodorcas_clarkei/Ammodorcas_clarkei.xlsx
+++ b/biology/Zoologie/Ammodorcas_clarkei/Ammodorcas_clarkei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antilope de Clarke, Dibatag
 L'antilope de Clarke (Ammodorcas clarkei), aussi appelée dibatag est une espèce d'antilope
@@ -513,7 +525,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>longueur du corps : 152-168 cm
 longueur des cornes : recourbées vers l'avant
@@ -547,7 +561,9 @@
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>maturité sexuelle : atteinte entre 12 et 18 mois
 gestation : 204 jours
@@ -583,7 +599,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Région Ogaden à l'est de l'Éthiopie et Somalie centrale.
 </t>
@@ -614,7 +632,9 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Végétarien.
 </t>
@@ -645,9 +665,11 @@
           <t>Prédateurs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guépards, hyènes, lycaons et humains, le dibatag peut courir à 100 km/h pour fuir les prédateurs[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guépards, hyènes, lycaons et humains, le dibatag peut courir à 100 km/h pour fuir les prédateurs.
 </t>
         </is>
       </c>
